--- a/Planning_Status.xlsx
+++ b/Planning_Status.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eshan/Desktop/VetFed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SameerMalla\Documents\Github\vetfed\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11420" yWindow="860" windowWidth="25440" windowHeight="14780" xr2:uid="{6AE260C9-2F89-7C46-AE8A-98EAE8B3C63B}"/>
+    <workbookView xWindow="11420" yWindow="860" windowWidth="25440" windowHeight="14780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
   <si>
     <t>State</t>
   </si>
@@ -75,13 +75,151 @@
   </si>
   <si>
     <t>Need to revisit, seems implausible</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>North Caolina</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Southeast</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Midwest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,12 +236,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,15 +280,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -434,21 +605,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A472C8-0B0D-C84A-90ED-30FB8E09B8E7}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -468,8 +639,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -482,8 +653,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -496,8 +667,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -510,8 +681,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -524,8 +695,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -541,8 +712,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -555,21 +726,368 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
